--- a/Binarization/bin/Debug/E1.xlsx
+++ b/Binarization/bin/Debug/E1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Akinobu\OneDrive - Aichi Public University Corporation\学部3年生\応用\4.Pic\Binarization\Binarization\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akinobu\OneDrive - Aichi Public University Corporation\学部3年生\応用\4.Pic\Binarizer\Binarization\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25920" windowHeight="14430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25920" windowHeight="14436"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7257,16 +7257,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>70928</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>69910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>309701</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>223050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7293,16 +7293,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>109027</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:rowOff>88960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>338276</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>127060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7329,16 +7329,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>109028</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>194476</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>300176</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:rowOff>136587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7665,17 +7665,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -7688,7 +7691,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>4055</v>
       </c>
@@ -7709,7 +7712,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>252</v>
       </c>
@@ -7730,7 +7733,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>354</v>
       </c>
@@ -7751,7 +7754,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>84</v>
       </c>
@@ -7772,7 +7775,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>309</v>
       </c>
@@ -7793,7 +7796,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>150</v>
       </c>
@@ -7814,7 +7817,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>452</v>
       </c>
@@ -7835,7 +7838,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>446</v>
       </c>
@@ -7856,7 +7859,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>91</v>
       </c>
@@ -7877,7 +7880,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>147</v>
       </c>
@@ -7898,7 +7901,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>94</v>
       </c>
@@ -7919,7 +7922,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>86</v>
       </c>
@@ -7940,7 +7943,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>284</v>
       </c>
@@ -7961,7 +7964,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>157</v>
       </c>
@@ -7982,7 +7985,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>132</v>
       </c>
@@ -8003,7 +8006,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>85</v>
       </c>
@@ -8024,7 +8027,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>174</v>
       </c>
@@ -8045,7 +8048,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>23</v>
       </c>
@@ -8066,7 +8069,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>69</v>
       </c>
@@ -8087,7 +8090,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>65</v>
       </c>
@@ -8108,7 +8111,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>130</v>
       </c>
@@ -8129,7 +8132,7 @@
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>101</v>
       </c>
@@ -8150,7 +8153,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>457</v>
       </c>
@@ -8171,7 +8174,7 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>189</v>
       </c>
@@ -8192,7 +8195,7 @@
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>188</v>
       </c>
@@ -8213,7 +8216,7 @@
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>4360</v>
       </c>
@@ -8234,7 +8237,7 @@
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>148</v>
       </c>
@@ -8255,7 +8258,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>112</v>
       </c>
@@ -8276,7 +8279,7 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>129</v>
       </c>
@@ -8297,7 +8300,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>97</v>
       </c>
@@ -8318,7 +8321,7 @@
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>145</v>
       </c>
@@ -8339,7 +8342,7 @@
       </c>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>89</v>
       </c>
@@ -8360,7 +8363,7 @@
       </c>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>103</v>
       </c>
@@ -8381,7 +8384,7 @@
       </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>90</v>
       </c>
@@ -8402,7 +8405,7 @@
       </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>164</v>
       </c>
@@ -8423,7 +8426,7 @@
       </c>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>41</v>
       </c>
@@ -8444,7 +8447,7 @@
       </c>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>66</v>
       </c>
@@ -8465,7 +8468,7 @@
       </c>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>126</v>
       </c>
@@ -8486,7 +8489,7 @@
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>319</v>
       </c>
@@ -8507,7 +8510,7 @@
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>94</v>
       </c>
@@ -8528,7 +8531,7 @@
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>190</v>
       </c>
@@ -8549,7 +8552,7 @@
       </c>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>111</v>
       </c>
@@ -8570,7 +8573,7 @@
       </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>408</v>
       </c>
@@ -8591,7 +8594,7 @@
       </c>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>6403</v>
       </c>
@@ -8612,7 +8615,7 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>86</v>
       </c>
@@ -8633,7 +8636,7 @@
       </c>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>90</v>
       </c>
@@ -8654,7 +8657,7 @@
       </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>194</v>
       </c>
@@ -8675,7 +8678,7 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>36</v>
       </c>
@@ -8696,7 +8699,7 @@
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>187</v>
       </c>
@@ -8717,7 +8720,7 @@
       </c>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>53</v>
       </c>
@@ -8738,7 +8741,7 @@
       </c>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>19</v>
       </c>
@@ -8759,7 +8762,7 @@
       </c>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>42</v>
       </c>
@@ -8780,7 +8783,7 @@
       </c>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>62</v>
       </c>
@@ -8801,7 +8804,7 @@
       </c>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>25</v>
       </c>
@@ -8822,7 +8825,7 @@
       </c>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>16</v>
       </c>
@@ -8843,7 +8846,7 @@
       </c>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>27</v>
       </c>
@@ -8864,7 +8867,7 @@
       </c>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>76</v>
       </c>
@@ -8885,7 +8888,7 @@
       </c>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>33</v>
       </c>
@@ -8906,7 +8909,7 @@
       </c>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>45</v>
       </c>
@@ -8927,7 +8930,7 @@
       </c>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>19</v>
       </c>
@@ -8948,7 +8951,7 @@
       </c>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>97</v>
       </c>
@@ -8969,7 +8972,7 @@
       </c>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>35</v>
       </c>
@@ -8990,7 +8993,7 @@
       </c>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>38</v>
       </c>
@@ -9011,7 +9014,7 @@
       </c>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>43</v>
       </c>
@@ -9032,7 +9035,7 @@
       </c>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>84</v>
       </c>
@@ -9053,7 +9056,7 @@
       </c>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>69</v>
       </c>
@@ -9074,7 +9077,7 @@
       </c>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>22</v>
       </c>
@@ -9095,7 +9098,7 @@
       </c>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>26</v>
       </c>
@@ -9116,7 +9119,7 @@
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>28</v>
       </c>
@@ -9137,7 +9140,7 @@
       </c>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>35</v>
       </c>
@@ -9158,7 +9161,7 @@
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>12</v>
       </c>
@@ -9179,7 +9182,7 @@
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>36</v>
       </c>
@@ -9200,7 +9203,7 @@
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>713</v>
       </c>
@@ -9221,7 +9224,7 @@
       </c>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>24</v>
       </c>
@@ -9242,7 +9245,7 @@
       </c>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>38</v>
       </c>
@@ -9263,7 +9266,7 @@
       </c>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>210</v>
       </c>
@@ -9284,7 +9287,7 @@
       </c>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>1241</v>
       </c>
@@ -9305,7 +9308,7 @@
       </c>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>41</v>
       </c>
@@ -9326,7 +9329,7 @@
       </c>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>492</v>
       </c>
@@ -9347,7 +9350,7 @@
       </c>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>23</v>
       </c>
@@ -9368,7 +9371,7 @@
       </c>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>28</v>
       </c>
@@ -9389,7 +9392,7 @@
       </c>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>11</v>
       </c>
@@ -9410,7 +9413,7 @@
       </c>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>18</v>
       </c>
@@ -9431,7 +9434,7 @@
       </c>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>71</v>
       </c>
@@ -9452,7 +9455,7 @@
       </c>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>66</v>
       </c>
@@ -9473,7 +9476,7 @@
       </c>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>10</v>
       </c>
@@ -9494,7 +9497,7 @@
       </c>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>24</v>
       </c>
@@ -9515,7 +9518,7 @@
       </c>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>11</v>
       </c>
@@ -9536,7 +9539,7 @@
       </c>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>16</v>
       </c>
@@ -9557,7 +9560,7 @@
       </c>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>26</v>
       </c>
@@ -9578,7 +9581,7 @@
       </c>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>23</v>
       </c>
@@ -9599,7 +9602,7 @@
       </c>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>43</v>
       </c>
@@ -9620,7 +9623,7 @@
       </c>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>20</v>
       </c>
@@ -9641,7 +9644,7 @@
       </c>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>34</v>
       </c>
@@ -9662,7 +9665,7 @@
       </c>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>12</v>
       </c>
@@ -9683,7 +9686,7 @@
       </c>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>11</v>
       </c>
@@ -9704,7 +9707,7 @@
       </c>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>55</v>
       </c>
@@ -9725,7 +9728,7 @@
       </c>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>78</v>
       </c>
@@ -9746,7 +9749,7 @@
       </c>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>151</v>
       </c>
@@ -9767,7 +9770,7 @@
       </c>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>27</v>
       </c>
@@ -9788,7 +9791,7 @@
       </c>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>37</v>
       </c>
@@ -9809,7 +9812,7 @@
       </c>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>11</v>
       </c>
@@ -9830,7 +9833,7 @@
       </c>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>63</v>
       </c>
@@ -9851,7 +9854,7 @@
       </c>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>35</v>
       </c>
@@ -9872,7 +9875,7 @@
       </c>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>14</v>
       </c>
@@ -9893,7 +9896,7 @@
       </c>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>37</v>
       </c>
@@ -9914,7 +9917,7 @@
       </c>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>69</v>
       </c>
@@ -9935,7 +9938,7 @@
       </c>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>19</v>
       </c>
@@ -9956,7 +9959,7 @@
       </c>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>17</v>
       </c>
@@ -9977,7 +9980,7 @@
       </c>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>28</v>
       </c>
@@ -9998,7 +10001,7 @@
       </c>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>13</v>
       </c>
@@ -10019,7 +10022,7 @@
       </c>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>18</v>
       </c>
@@ -10040,7 +10043,7 @@
       </c>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>17</v>
       </c>
@@ -10061,7 +10064,7 @@
       </c>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>42</v>
       </c>
@@ -10082,7 +10085,7 @@
       </c>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>179</v>
       </c>
@@ -10103,7 +10106,7 @@
       </c>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>104</v>
       </c>
@@ -10124,7 +10127,7 @@
       </c>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>14</v>
       </c>
@@ -10145,7 +10148,7 @@
       </c>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>198</v>
       </c>
@@ -10166,7 +10169,7 @@
       </c>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>62</v>
       </c>
@@ -10187,7 +10190,7 @@
       </c>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>67</v>
       </c>
@@ -10208,7 +10211,7 @@
       </c>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>75</v>
       </c>
@@ -10229,7 +10232,7 @@
       </c>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>7457</v>
       </c>
@@ -10250,7 +10253,7 @@
       </c>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>102</v>
       </c>
@@ -10271,7 +10274,7 @@
       </c>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>9112</v>
       </c>
@@ -10292,7 +10295,7 @@
       </c>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>25</v>
       </c>
@@ -10313,7 +10316,7 @@
       </c>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>27</v>
       </c>
@@ -10334,7 +10337,7 @@
       </c>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>29</v>
       </c>
@@ -10355,7 +10358,7 @@
       </c>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>191</v>
       </c>
@@ -10376,7 +10379,7 @@
       </c>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>117</v>
       </c>
@@ -10397,7 +10400,7 @@
       </c>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>1707</v>
       </c>
@@ -10418,7 +10421,7 @@
       </c>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>40</v>
       </c>
@@ -10439,7 +10442,7 @@
       </c>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>102</v>
       </c>
@@ -10460,7 +10463,7 @@
       </c>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>127</v>
       </c>
@@ -10481,7 +10484,7 @@
       </c>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>15</v>
       </c>
@@ -10502,7 +10505,7 @@
       </c>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>36</v>
       </c>
@@ -10523,7 +10526,7 @@
       </c>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>18</v>
       </c>
@@ -10544,7 +10547,7 @@
       </c>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>10</v>
       </c>
@@ -10565,7 +10568,7 @@
       </c>
       <c r="G138" s="1"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>85</v>
       </c>
@@ -10586,7 +10589,7 @@
       </c>
       <c r="G139" s="1"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>20</v>
       </c>
@@ -10607,7 +10610,7 @@
       </c>
       <c r="G140" s="1"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>25</v>
       </c>
@@ -10628,7 +10631,7 @@
       </c>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>119</v>
       </c>
@@ -10649,7 +10652,7 @@
       </c>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>39</v>
       </c>
@@ -10670,7 +10673,7 @@
       </c>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>61</v>
       </c>
@@ -10691,7 +10694,7 @@
       </c>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>13</v>
       </c>
@@ -10712,7 +10715,7 @@
       </c>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>21</v>
       </c>
@@ -10733,7 +10736,7 @@
       </c>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>27</v>
       </c>
@@ -10754,7 +10757,7 @@
       </c>
       <c r="G147" s="1"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>25</v>
       </c>
@@ -10775,7 +10778,7 @@
       </c>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>49</v>
       </c>
@@ -10796,7 +10799,7 @@
       </c>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>76</v>
       </c>
@@ -10817,7 +10820,7 @@
       </c>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>172</v>
       </c>
@@ -10838,7 +10841,7 @@
       </c>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>256</v>
       </c>
@@ -10859,7 +10862,7 @@
       </c>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>10</v>
       </c>
@@ -10880,7 +10883,7 @@
       </c>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>20</v>
       </c>
@@ -10901,7 +10904,7 @@
       </c>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>67</v>
       </c>
@@ -10922,7 +10925,7 @@
       </c>
       <c r="G155" s="1"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>37</v>
       </c>
@@ -10943,7 +10946,7 @@
       </c>
       <c r="G156" s="1"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>17</v>
       </c>
@@ -10964,7 +10967,7 @@
       </c>
       <c r="G157" s="1"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>59</v>
       </c>
@@ -10985,7 +10988,7 @@
       </c>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>20</v>
       </c>
@@ -11006,7 +11009,7 @@
       </c>
       <c r="G159" s="1"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>19</v>
       </c>
@@ -11027,7 +11030,7 @@
       </c>
       <c r="G160" s="1"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>13</v>
       </c>
@@ -11048,7 +11051,7 @@
       </c>
       <c r="G161" s="1"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>47</v>
       </c>
@@ -11069,7 +11072,7 @@
       </c>
       <c r="G162" s="1"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>10</v>
       </c>
@@ -11090,7 +11093,7 @@
       </c>
       <c r="G163" s="1"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>10</v>
       </c>
@@ -11111,7 +11114,7 @@
       </c>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>48</v>
       </c>
@@ -11132,7 +11135,7 @@
       </c>
       <c r="G165" s="1"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>145</v>
       </c>
@@ -11153,7 +11156,7 @@
       </c>
       <c r="G166" s="1"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>10</v>
       </c>
@@ -11174,7 +11177,7 @@
       </c>
       <c r="G167" s="1"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>9</v>
       </c>
@@ -11195,7 +11198,7 @@
       </c>
       <c r="G168" s="1"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>109</v>
       </c>
@@ -11216,7 +11219,7 @@
       </c>
       <c r="G169" s="1"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>21</v>
       </c>
@@ -11237,7 +11240,7 @@
       </c>
       <c r="G170" s="1"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>15</v>
       </c>
@@ -11258,7 +11261,7 @@
       </c>
       <c r="G171" s="1"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>22</v>
       </c>
@@ -11279,7 +11282,7 @@
       </c>
       <c r="G172" s="1"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>24</v>
       </c>
@@ -11300,7 +11303,7 @@
       </c>
       <c r="G173" s="1"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>47</v>
       </c>
@@ -11321,7 +11324,7 @@
       </c>
       <c r="G174" s="1"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>104</v>
       </c>
@@ -11342,7 +11345,7 @@
       </c>
       <c r="G175" s="1"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>62</v>
       </c>
@@ -11363,7 +11366,7 @@
       </c>
       <c r="G176" s="1"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>9</v>
       </c>
@@ -11384,7 +11387,7 @@
       </c>
       <c r="G177" s="1"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>50</v>
       </c>
@@ -11405,7 +11408,7 @@
       </c>
       <c r="G178" s="1"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>15</v>
       </c>
@@ -11426,7 +11429,7 @@
       </c>
       <c r="G179" s="1"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>6</v>
       </c>
@@ -11447,7 +11450,7 @@
       </c>
       <c r="G180" s="1"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>44</v>
       </c>
@@ -11468,7 +11471,7 @@
       </c>
       <c r="G181" s="1"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>101</v>
       </c>
@@ -11489,7 +11492,7 @@
       </c>
       <c r="G182" s="1"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>6</v>
       </c>
@@ -11510,7 +11513,7 @@
       </c>
       <c r="G183" s="1"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>15</v>
       </c>
@@ -11531,7 +11534,7 @@
       </c>
       <c r="G184" s="1"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>11</v>
       </c>
@@ -11552,7 +11555,7 @@
       </c>
       <c r="G185" s="1"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>33</v>
       </c>
@@ -11573,7 +11576,7 @@
       </c>
       <c r="G186" s="1"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>19</v>
       </c>
@@ -11594,7 +11597,7 @@
       </c>
       <c r="G187" s="1"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>7</v>
       </c>
@@ -11615,7 +11618,7 @@
       </c>
       <c r="G188" s="1"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>85</v>
       </c>
@@ -11636,7 +11639,7 @@
       </c>
       <c r="G189" s="1"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>18</v>
       </c>
@@ -11657,7 +11660,7 @@
       </c>
       <c r="G190" s="1"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>113</v>
       </c>
@@ -11678,7 +11681,7 @@
       </c>
       <c r="G191" s="1"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>32</v>
       </c>
@@ -11699,7 +11702,7 @@
       </c>
       <c r="G192" s="1"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>11</v>
       </c>
@@ -11720,7 +11723,7 @@
       </c>
       <c r="G193" s="1"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>109</v>
       </c>
@@ -11741,7 +11744,7 @@
       </c>
       <c r="G194" s="1"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>7</v>
       </c>
@@ -11762,7 +11765,7 @@
       </c>
       <c r="G195" s="1"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>30</v>
       </c>
@@ -11783,7 +11786,7 @@
       </c>
       <c r="G196" s="1"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>36</v>
       </c>
@@ -11804,7 +11807,7 @@
       </c>
       <c r="G197" s="1"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>5</v>
       </c>
@@ -11825,7 +11828,7 @@
       </c>
       <c r="G198" s="1"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>53</v>
       </c>
@@ -11846,7 +11849,7 @@
       </c>
       <c r="G199" s="1"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>137</v>
       </c>
@@ -11867,7 +11870,7 @@
       </c>
       <c r="G200" s="1"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>26</v>
       </c>
@@ -11888,7 +11891,7 @@
       </c>
       <c r="G201" s="1"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>120</v>
       </c>
@@ -11909,7 +11912,7 @@
       </c>
       <c r="G202" s="1"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>18</v>
       </c>
@@ -11930,7 +11933,7 @@
       </c>
       <c r="G203" s="1"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>26</v>
       </c>
@@ -11951,7 +11954,7 @@
       </c>
       <c r="G204" s="1"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>53</v>
       </c>
@@ -11972,7 +11975,7 @@
       </c>
       <c r="G205" s="1"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>446</v>
       </c>
@@ -11993,7 +11996,7 @@
       </c>
       <c r="G206" s="1"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>6928</v>
       </c>
@@ -12014,7 +12017,7 @@
       </c>
       <c r="G207" s="1"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>63</v>
       </c>
@@ -12035,7 +12038,7 @@
       </c>
       <c r="G208" s="1"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>109</v>
       </c>
@@ -12056,7 +12059,7 @@
       </c>
       <c r="G209" s="1"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>12</v>
       </c>
@@ -12077,7 +12080,7 @@
       </c>
       <c r="G210" s="1"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>77</v>
       </c>
@@ -12098,7 +12101,7 @@
       </c>
       <c r="G211" s="1"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>18</v>
       </c>
@@ -12119,7 +12122,7 @@
       </c>
       <c r="G212" s="1"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>161</v>
       </c>
@@ -12140,7 +12143,7 @@
       </c>
       <c r="G213" s="1"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>62</v>
       </c>
@@ -12161,7 +12164,7 @@
       </c>
       <c r="G214" s="1"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>109</v>
       </c>
@@ -12182,7 +12185,7 @@
       </c>
       <c r="G215" s="1"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>69</v>
       </c>
@@ -12203,7 +12206,7 @@
       </c>
       <c r="G216" s="1"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>25</v>
       </c>
@@ -12224,7 +12227,7 @@
       </c>
       <c r="G217" s="1"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>39</v>
       </c>
@@ -12245,7 +12248,7 @@
       </c>
       <c r="G218" s="1"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>64</v>
       </c>
@@ -12266,7 +12269,7 @@
       </c>
       <c r="G219" s="1"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>39</v>
       </c>
@@ -12287,7 +12290,7 @@
       </c>
       <c r="G220" s="1"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>151</v>
       </c>
@@ -12308,7 +12311,7 @@
       </c>
       <c r="G221" s="1"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>53</v>
       </c>
@@ -12329,7 +12332,7 @@
       </c>
       <c r="G222" s="1"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>21</v>
       </c>
@@ -12350,7 +12353,7 @@
       </c>
       <c r="G223" s="1"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>83</v>
       </c>
@@ -12371,7 +12374,7 @@
       </c>
       <c r="G224" s="1"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>39</v>
       </c>
@@ -12392,7 +12395,7 @@
       </c>
       <c r="G225" s="1"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>43</v>
       </c>
@@ -12413,7 +12416,7 @@
       </c>
       <c r="G226" s="1"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>58</v>
       </c>
@@ -12434,7 +12437,7 @@
       </c>
       <c r="G227" s="1"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>35</v>
       </c>
@@ -12455,7 +12458,7 @@
       </c>
       <c r="G228" s="1"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>957</v>
       </c>
@@ -12476,7 +12479,7 @@
       </c>
       <c r="G229" s="1"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>274</v>
       </c>
@@ -12497,7 +12500,7 @@
       </c>
       <c r="G230" s="1"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>78</v>
       </c>
@@ -12518,7 +12521,7 @@
       </c>
       <c r="G231" s="1"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>501</v>
       </c>
@@ -12539,7 +12542,7 @@
       </c>
       <c r="G232" s="1"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>85</v>
       </c>
@@ -12560,7 +12563,7 @@
       </c>
       <c r="G233" s="1"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>40</v>
       </c>
@@ -12581,7 +12584,7 @@
       </c>
       <c r="G234" s="1"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>90</v>
       </c>
@@ -12602,7 +12605,7 @@
       </c>
       <c r="G235" s="1"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>30</v>
       </c>
@@ -12623,7 +12626,7 @@
       </c>
       <c r="G236" s="1"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>66</v>
       </c>
@@ -12644,7 +12647,7 @@
       </c>
       <c r="G237" s="1"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>2364</v>
       </c>
@@ -12665,7 +12668,7 @@
       </c>
       <c r="G238" s="1"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>106</v>
       </c>
@@ -12686,7 +12689,7 @@
       </c>
       <c r="G239" s="1"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>334</v>
       </c>
@@ -12707,7 +12710,7 @@
       </c>
       <c r="G240" s="1"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>77</v>
       </c>
@@ -12728,7 +12731,7 @@
       </c>
       <c r="G241" s="1"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>118</v>
       </c>
@@ -12749,7 +12752,7 @@
       </c>
       <c r="G242" s="1"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>98</v>
       </c>
@@ -12770,7 +12773,7 @@
       </c>
       <c r="G243" s="1"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>71</v>
       </c>
@@ -12791,7 +12794,7 @@
       </c>
       <c r="G244" s="1"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>536</v>
       </c>
@@ -12812,7 +12815,7 @@
       </c>
       <c r="G245" s="1"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>26</v>
       </c>
@@ -12833,7 +12836,7 @@
       </c>
       <c r="G246" s="1"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>272</v>
       </c>
@@ -12854,7 +12857,7 @@
       </c>
       <c r="G247" s="1"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>99</v>
       </c>
@@ -12875,7 +12878,7 @@
       </c>
       <c r="G248" s="1"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>99</v>
       </c>
@@ -12896,7 +12899,7 @@
       </c>
       <c r="G249" s="1"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>27</v>
       </c>
@@ -12917,7 +12920,7 @@
       </c>
       <c r="G250" s="1"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>21</v>
       </c>
@@ -12938,7 +12941,7 @@
       </c>
       <c r="G251" s="1"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>7</v>
       </c>
@@ -12959,7 +12962,7 @@
       </c>
       <c r="G252" s="1"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>6</v>
       </c>
@@ -12980,7 +12983,7 @@
       </c>
       <c r="G253" s="1"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>6</v>
       </c>
@@ -13001,7 +13004,7 @@
       </c>
       <c r="G254" s="1"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>5</v>
       </c>
@@ -13022,7 +13025,7 @@
       </c>
       <c r="G255" s="1"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>35209</v>
       </c>
@@ -13043,7 +13046,7 @@
       </c>
       <c r="G256" s="1"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>0</v>
       </c>
